--- a/Code/Results/Cases/Case_3_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.714161194353039</v>
+        <v>0.9711167655286204</v>
       </c>
       <c r="C2">
-        <v>0.5847282244621397</v>
+        <v>0.4215847273774216</v>
       </c>
       <c r="D2">
-        <v>0.07241778312786806</v>
+        <v>0.02602527397905163</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3027934069906877</v>
+        <v>0.4650413404363576</v>
       </c>
       <c r="G2">
-        <v>0.1982177163456811</v>
+        <v>0.3089105744678378</v>
       </c>
       <c r="H2">
-        <v>0.183949214131033</v>
+        <v>0.4839417890378002</v>
       </c>
       <c r="I2">
-        <v>0.1562956262107278</v>
+        <v>0.4865250624665105</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1767166686828787</v>
+        <v>0.2867844065969294</v>
       </c>
       <c r="M2">
-        <v>0.4425073714752727</v>
+        <v>0.2233287334207716</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7557304700511622</v>
+        <v>1.514733860554671</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.365382224633152</v>
+        <v>0.8585379497432086</v>
       </c>
       <c r="C3">
-        <v>0.5408250265343213</v>
+        <v>0.4071738916452148</v>
       </c>
       <c r="D3">
-        <v>0.06379824486115382</v>
+        <v>0.02317560934999108</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2837706323632005</v>
+        <v>0.4657801849399306</v>
       </c>
       <c r="G3">
-        <v>0.1875246625247584</v>
+        <v>0.3108882590470827</v>
       </c>
       <c r="H3">
-        <v>0.18489820846942</v>
+        <v>0.4887947014537701</v>
       </c>
       <c r="I3">
-        <v>0.1683567127116703</v>
+        <v>0.4957867113249055</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1650664627284897</v>
+        <v>0.2860959356829724</v>
       </c>
       <c r="M3">
-        <v>0.3855542111807893</v>
+        <v>0.2061702657539684</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7346917086405966</v>
+        <v>1.528828900888456</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.151129954031717</v>
+        <v>0.7892128462782466</v>
       </c>
       <c r="C4">
-        <v>0.5139331388120638</v>
+        <v>0.3983424049376367</v>
       </c>
       <c r="D4">
-        <v>0.05849570009383598</v>
+        <v>0.02141627138114188</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2729168552538184</v>
+        <v>0.4666282428029263</v>
       </c>
       <c r="G4">
-        <v>0.1817158326201636</v>
+        <v>0.3124268792460754</v>
       </c>
       <c r="H4">
-        <v>0.1859680863740394</v>
+        <v>0.4920569743757142</v>
       </c>
       <c r="I4">
-        <v>0.1764942370258638</v>
+        <v>0.5018498779597405</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1582094405202454</v>
+        <v>0.2858436360644419</v>
       </c>
       <c r="M4">
-        <v>0.3506521746704152</v>
+        <v>0.1956565308294671</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7243890037693461</v>
+        <v>1.538753444722502</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.063774714690339</v>
+        <v>0.7609137547648288</v>
       </c>
       <c r="C5">
-        <v>0.5029888565218528</v>
+        <v>0.3947481216227402</v>
       </c>
       <c r="D5">
-        <v>0.0563319395947488</v>
+        <v>0.0206969508088406</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2686902490085004</v>
+        <v>0.4670729077802136</v>
       </c>
       <c r="G5">
-        <v>0.1795280899445331</v>
+        <v>0.3131352400340361</v>
       </c>
       <c r="H5">
-        <v>0.1865217378702297</v>
+        <v>0.4934574235412725</v>
       </c>
       <c r="I5">
-        <v>0.17998723848374</v>
+        <v>0.504415215520039</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1554859126914891</v>
+        <v>0.2857837164307142</v>
       </c>
       <c r="M5">
-        <v>0.3364418329510315</v>
+        <v>0.1913778382494584</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7208149452712007</v>
+        <v>1.543116737242968</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.049266114076261</v>
+        <v>0.7562118407688558</v>
       </c>
       <c r="C6">
-        <v>0.5011723822445049</v>
+        <v>0.3941515840874672</v>
       </c>
       <c r="D6">
-        <v>0.05597246097730135</v>
+        <v>0.02057736602474591</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2679999625395197</v>
+        <v>0.4671527249163461</v>
       </c>
       <c r="G6">
-        <v>0.1791753429258947</v>
+        <v>0.3132577711641389</v>
       </c>
       <c r="H6">
-        <v>0.1866206405342936</v>
+        <v>0.4936942578864247</v>
       </c>
       <c r="I6">
-        <v>0.1805777287412553</v>
+        <v>0.5048468947947455</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1550378410608673</v>
+        <v>0.2857763587196303</v>
       </c>
       <c r="M6">
-        <v>0.3340828482531322</v>
+        <v>0.1906677201297455</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7202582418783976</v>
+        <v>1.543860510552392</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.149952061724434</v>
+        <v>0.7888313886690526</v>
       </c>
       <c r="C7">
-        <v>0.5137854845933134</v>
+        <v>0.3982939119562445</v>
       </c>
       <c r="D7">
-        <v>0.05846653122268464</v>
+        <v>0.02140657993112427</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2728590732498617</v>
+        <v>0.46663383869695</v>
       </c>
       <c r="G7">
-        <v>0.1816856156107605</v>
+        <v>0.31243610327531</v>
       </c>
       <c r="H7">
-        <v>0.1859750829234841</v>
+        <v>0.4920755736677975</v>
       </c>
       <c r="I7">
-        <v>0.1765406378793539</v>
+        <v>0.5018840923379475</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1581724283575667</v>
+        <v>0.2858426542354877</v>
       </c>
       <c r="M7">
-        <v>0.3504604840033707</v>
+        <v>0.1955988032462344</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7243383175572831</v>
+        <v>1.538810998719029</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.593910258640733</v>
+        <v>0.9323425572241604</v>
       </c>
       <c r="C8">
-        <v>0.5695757155961871</v>
+        <v>0.4166126067994185</v>
       </c>
       <c r="D8">
-        <v>0.0694476221054785</v>
+        <v>0.02504473559076104</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2960558533879407</v>
+        <v>0.465214173155502</v>
       </c>
       <c r="G8">
-        <v>0.1943669859257895</v>
+        <v>0.3095250537716794</v>
       </c>
       <c r="H8">
-        <v>0.18417233139985</v>
+        <v>0.4855564228452565</v>
       </c>
       <c r="I8">
-        <v>0.1602979669213802</v>
+        <v>0.4896402701096694</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1726358898342184</v>
+        <v>0.2865116731663946</v>
       </c>
       <c r="M8">
-        <v>0.4228531572331278</v>
+        <v>0.217408177686508</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7479130693614451</v>
+        <v>1.519329958779238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.464745987291565</v>
+        <v>1.212093938135752</v>
       </c>
       <c r="C9">
-        <v>0.6795958844848258</v>
+        <v>0.4526538308719523</v>
       </c>
       <c r="D9">
-        <v>0.09092098528998349</v>
+        <v>0.03210101992269898</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3486405266572703</v>
+        <v>0.4655649192871394</v>
       </c>
       <c r="G9">
-        <v>0.2257552472965614</v>
+        <v>0.3063986875728233</v>
       </c>
       <c r="H9">
-        <v>0.1847318061005794</v>
+        <v>0.4750147928833002</v>
       </c>
       <c r="I9">
-        <v>0.1345907231213079</v>
+        <v>0.4686224144566857</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2035274025120728</v>
+        <v>0.2891745862570261</v>
       </c>
       <c r="M9">
-        <v>0.565570226384466</v>
+        <v>0.260336970606545</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8164667379257793</v>
+        <v>1.491225573793471</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.106296175488581</v>
+        <v>1.416524092291638</v>
       </c>
       <c r="C10">
-        <v>0.7609645965357288</v>
+        <v>0.4791878283783149</v>
       </c>
       <c r="D10">
-        <v>0.1066913172622606</v>
+        <v>0.03723583726576862</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3923915512052218</v>
+        <v>0.4677419344235076</v>
       </c>
       <c r="G10">
-        <v>0.2535463663679778</v>
+        <v>0.3056886828947967</v>
       </c>
       <c r="H10">
-        <v>0.1879742203960006</v>
+        <v>0.4686375143487993</v>
       </c>
       <c r="I10">
-        <v>0.1199389939671107</v>
+        <v>0.4550112516556748</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2280276583884557</v>
+        <v>0.2919536218731622</v>
       </c>
       <c r="M10">
-        <v>0.6712212317178228</v>
+        <v>0.2919631864818939</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8827461472695433</v>
+        <v>1.476761965364162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.398922558813581</v>
+        <v>1.50926894533859</v>
       </c>
       <c r="C11">
-        <v>0.7981378208947092</v>
+        <v>0.4912671437463132</v>
       </c>
       <c r="D11">
-        <v>0.1138717272616674</v>
+        <v>0.03956071096725111</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4135923073433077</v>
+        <v>0.469150902069984</v>
       </c>
       <c r="G11">
-        <v>0.2673942818874266</v>
+        <v>0.3057130146031142</v>
       </c>
       <c r="H11">
-        <v>0.1901430761010943</v>
+        <v>0.4660334442884562</v>
       </c>
       <c r="I11">
-        <v>0.1143080693867429</v>
+        <v>0.4492180602520204</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2396272108912143</v>
+        <v>0.2933963296196964</v>
       </c>
       <c r="M11">
-        <v>0.7195384831301155</v>
+        <v>0.3063673138310321</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9168964975438314</v>
+        <v>1.471531240661051</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.509878752915768</v>
+        <v>1.544351068179367</v>
       </c>
       <c r="C12">
-        <v>0.8122405538420026</v>
+        <v>0.4958421924705192</v>
       </c>
       <c r="D12">
-        <v>0.1165923130649844</v>
+        <v>0.04043946063588066</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4218236504372612</v>
+        <v>0.4697447643540542</v>
       </c>
       <c r="G12">
-        <v>0.2728273063429754</v>
+        <v>0.3057723819986151</v>
       </c>
       <c r="H12">
-        <v>0.1910711849162681</v>
+        <v>0.4650900702417147</v>
       </c>
       <c r="I12">
-        <v>0.112334759894015</v>
+        <v>0.447081773282985</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2440904514424176</v>
+        <v>0.2939682866448408</v>
       </c>
       <c r="M12">
-        <v>0.7378788330527044</v>
+        <v>0.3118239997381096</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9304517651286517</v>
+        <v>1.469744942359512</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.485975361014766</v>
+        <v>1.536797245104083</v>
       </c>
       <c r="C13">
-        <v>0.8092020644162119</v>
+        <v>0.494856841339157</v>
       </c>
       <c r="D13">
-        <v>0.1160063086039287</v>
+        <v>0.04025027944967974</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4200415791697552</v>
+        <v>0.4696141810256265</v>
       </c>
       <c r="G13">
-        <v>0.2716485343198229</v>
+        <v>0.3057573622594489</v>
       </c>
       <c r="H13">
-        <v>0.1908664327457501</v>
+        <v>0.4652913418733533</v>
       </c>
       <c r="I13">
-        <v>0.1127525052717271</v>
+        <v>0.4475393025572263</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2431259764162519</v>
+        <v>0.2938439659023828</v>
       </c>
       <c r="M13">
-        <v>0.7339268548027604</v>
+        <v>0.3106487139801999</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9275038753496005</v>
+        <v>1.47012099691085</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.408047891940669</v>
+        <v>1.512155953540628</v>
       </c>
       <c r="C14">
-        <v>0.7992975194891017</v>
+        <v>0.4916435205225582</v>
       </c>
       <c r="D14">
-        <v>0.1140955174340661</v>
+        <v>0.03963303917851135</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4142653372649292</v>
+        <v>0.4691985499712885</v>
       </c>
       <c r="G14">
-        <v>0.2678373759469181</v>
+        <v>0.305716892449432</v>
       </c>
       <c r="H14">
-        <v>0.1902172496121892</v>
+        <v>0.4659549758105044</v>
       </c>
       <c r="I14">
-        <v>0.1141424762656467</v>
+        <v>0.4490411540103985</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2399929543143742</v>
+        <v>0.2934428713063824</v>
       </c>
       <c r="M14">
-        <v>0.7210464389182931</v>
+        <v>0.3068161972828776</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9179989193440861</v>
+        <v>1.471380380630876</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.360334948698096</v>
+        <v>1.497057393419766</v>
       </c>
       <c r="C15">
-        <v>0.7932341933636451</v>
+        <v>0.4896753707392065</v>
       </c>
       <c r="D15">
-        <v>0.1129253191975721</v>
+        <v>0.03925474797657102</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4107541734489004</v>
+        <v>0.4689518224404736</v>
       </c>
       <c r="G15">
-        <v>0.2655280453728963</v>
+        <v>0.3056986411790774</v>
       </c>
       <c r="H15">
-        <v>0.1898337326055639</v>
+        <v>0.46636703628851</v>
       </c>
       <c r="I15">
-        <v>0.1150148961066364</v>
+        <v>0.4499685700179992</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2380832672947548</v>
+        <v>0.2932005266729192</v>
       </c>
       <c r="M15">
-        <v>0.7131627087927086</v>
+        <v>0.3044689414336545</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9122595098788224</v>
+        <v>1.472177129218522</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.087190808840944</v>
+        <v>1.410457751359843</v>
       </c>
       <c r="C16">
-        <v>0.7585386971583432</v>
+        <v>0.4783985607893158</v>
       </c>
       <c r="D16">
-        <v>0.1062222397213759</v>
+        <v>0.03708367602193618</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3910335331575467</v>
+        <v>0.4676582891684333</v>
       </c>
       <c r="G16">
-        <v>0.2526669561306818</v>
+        <v>0.3056940996415136</v>
       </c>
       <c r="H16">
-        <v>0.1878470338402352</v>
+        <v>0.4688136746756726</v>
       </c>
       <c r="I16">
-        <v>0.1203286636065606</v>
+        <v>0.4553978840471622</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.22727919666265</v>
+        <v>0.2918629266596326</v>
       </c>
       <c r="M16">
-        <v>0.6680693113754614</v>
+        <v>0.2910221618087263</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8805988674324112</v>
+        <v>1.477130990706556</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.919848344197533</v>
+        <v>1.357265716447785</v>
       </c>
       <c r="C17">
-        <v>0.7372969051999974</v>
+        <v>0.4714825878475608</v>
       </c>
       <c r="D17">
-        <v>0.1021121711097948</v>
+        <v>0.03574894532148676</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.379279402648045</v>
+        <v>0.4669720549132137</v>
       </c>
       <c r="G17">
-        <v>0.2450967724734383</v>
+        <v>0.3057804196138036</v>
       </c>
       <c r="H17">
-        <v>0.1868108369970898</v>
+        <v>0.4703906909054467</v>
       </c>
       <c r="I17">
-        <v>0.1238604927596079</v>
+        <v>0.4588307900272728</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.220771344678937</v>
+        <v>0.2910880486234788</v>
       </c>
       <c r="M17">
-        <v>0.6404762663621852</v>
+        <v>0.2827771771876897</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8622337534172431</v>
+        <v>1.480515854073943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.823668897407288</v>
+        <v>1.32664752672548</v>
       </c>
       <c r="C18">
-        <v>0.7250938642010567</v>
+        <v>0.4675055614675045</v>
       </c>
       <c r="D18">
-        <v>0.09974873296829401</v>
+        <v>0.03498021300656262</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3726398887187941</v>
+        <v>0.4666167478914005</v>
       </c>
       <c r="G18">
-        <v>0.2408550781367964</v>
+        <v>0.3058627472375832</v>
       </c>
       <c r="H18">
-        <v>0.1862797067424395</v>
+        <v>0.4713257012092598</v>
       </c>
       <c r="I18">
-        <v>0.1259886012845328</v>
+        <v>0.4608428153740345</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2170706133015301</v>
+        <v>0.2906591636210578</v>
       </c>
       <c r="M18">
-        <v>0.6246291421129015</v>
+        <v>0.2780365182665676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8520440187986367</v>
+        <v>1.482589667839349</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.791115522337464</v>
+        <v>1.316276757814535</v>
       </c>
       <c r="C19">
-        <v>0.7209645490054868</v>
+        <v>0.4661591683619406</v>
       </c>
       <c r="D19">
-        <v>0.09894859285064683</v>
+        <v>0.0347197580037033</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3704121882864229</v>
+        <v>0.4665032098403614</v>
       </c>
       <c r="G19">
-        <v>0.2394377672488659</v>
+        <v>0.3058962281187689</v>
       </c>
       <c r="H19">
-        <v>0.1861108084269603</v>
+        <v>0.4716470797095624</v>
       </c>
       <c r="I19">
-        <v>0.1267254465575007</v>
+        <v>0.4615304901019108</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2158247341928075</v>
+        <v>0.2905168377426293</v>
       </c>
       <c r="M19">
-        <v>0.6192674425706457</v>
+        <v>0.2764317036929285</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8486566633280006</v>
+        <v>1.483313610504325</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.937654606537137</v>
+        <v>1.362930551329327</v>
       </c>
       <c r="C20">
-        <v>0.7395565883522863</v>
+        <v>0.4722187190520799</v>
       </c>
       <c r="D20">
-        <v>0.1025496322934458</v>
+        <v>0.03589113670463462</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3805179957415916</v>
+        <v>0.4670410274413825</v>
       </c>
       <c r="G20">
-        <v>0.2458908797796013</v>
+        <v>0.3057678470602667</v>
       </c>
       <c r="H20">
-        <v>0.1869143793642252</v>
+        <v>0.4702199217003198</v>
       </c>
       <c r="I20">
-        <v>0.1234744436302257</v>
+        <v>0.4584614682239145</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.221459688898932</v>
+        <v>0.2911687967770575</v>
       </c>
       <c r="M20">
-        <v>0.6434110959155674</v>
+        <v>0.283654702643382</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8641497674440899</v>
+        <v>1.480142389171732</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.430932873720565</v>
+        <v>1.519394756045301</v>
       </c>
       <c r="C21">
-        <v>0.8022059900797842</v>
+        <v>0.4925873301916113</v>
       </c>
       <c r="D21">
-        <v>0.1146567168626547</v>
+        <v>0.03981438223617317</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4159563121838588</v>
+        <v>0.4693189929774348</v>
       </c>
       <c r="G21">
-        <v>0.268951542242803</v>
+        <v>0.3057274166005755</v>
       </c>
       <c r="H21">
-        <v>0.1904049733005024</v>
+        <v>0.4657588905419416</v>
       </c>
       <c r="I21">
-        <v>0.113729807768383</v>
+        <v>0.4485984629409732</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2409112340056083</v>
+        <v>0.2935599870659189</v>
       </c>
       <c r="M21">
-        <v>0.7248284875560742</v>
+        <v>0.3079418443676403</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9207734406583654</v>
+        <v>1.471005187447872</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.754180431343286</v>
+        <v>1.621428680451231</v>
       </c>
       <c r="C22">
-        <v>0.8433045067344835</v>
+        <v>0.5059043065663218</v>
       </c>
       <c r="D22">
-        <v>0.1225785685211491</v>
+        <v>0.04236892836860306</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4403093668497817</v>
+        <v>0.4711594007894107</v>
       </c>
       <c r="G22">
-        <v>0.2851334132940906</v>
+        <v>0.3059934217837679</v>
       </c>
       <c r="H22">
-        <v>0.1933124508728525</v>
+        <v>0.4630924275202233</v>
       </c>
       <c r="I22">
-        <v>0.1082931376444201</v>
+        <v>0.4424874612360288</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2540390523491709</v>
+        <v>0.2952721717146432</v>
       </c>
       <c r="M22">
-        <v>0.778297453033538</v>
+        <v>0.3238273127555757</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9614378256774501</v>
+        <v>1.466167209536593</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.58156688324658</v>
+        <v>1.566992511701244</v>
       </c>
       <c r="C23">
-        <v>0.8213542468639332</v>
+        <v>0.4987964678449828</v>
       </c>
       <c r="D23">
-        <v>0.1183494783979029</v>
+        <v>0.04100640692719537</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4271969132979478</v>
+        <v>0.4701449283597725</v>
       </c>
       <c r="G23">
-        <v>0.2763897659323931</v>
+        <v>0.3058246237949902</v>
       </c>
       <c r="H23">
-        <v>0.1917009349990337</v>
+        <v>0.464492770294072</v>
       </c>
       <c r="I23">
-        <v>0.111105944647516</v>
+        <v>0.445718311606603</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2469926226337833</v>
+        <v>0.2943446876494846</v>
       </c>
       <c r="M23">
-        <v>0.7497340638650982</v>
+        <v>0.3153479078801169</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.939383075405857</v>
+        <v>1.468645430427244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.929604310653019</v>
+        <v>1.360369595749773</v>
       </c>
       <c r="C24">
-        <v>0.7385349573498274</v>
+        <v>0.4718859170368717</v>
       </c>
       <c r="D24">
-        <v>0.1023518577100049</v>
+        <v>0.03582685626818716</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3799576612006987</v>
+        <v>0.4670097228093368</v>
       </c>
       <c r="G24">
-        <v>0.2455315208473223</v>
+        <v>0.3057734292668428</v>
       </c>
       <c r="H24">
-        <v>0.1868673671935142</v>
+        <v>0.4702970381120721</v>
       </c>
       <c r="I24">
-        <v>0.1236486731691961</v>
+        <v>0.4586283190033349</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2211483620508687</v>
+        <v>0.2911322388194577</v>
       </c>
       <c r="M24">
-        <v>0.6420842086382308</v>
+        <v>0.2832579749416624</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.863282392956279</v>
+        <v>1.480310834571483</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.228978213635514</v>
+        <v>1.136601576579039</v>
       </c>
       <c r="C25">
-        <v>0.6497507438421621</v>
+        <v>0.4428928923975093</v>
       </c>
       <c r="D25">
-        <v>0.0851153013875745</v>
+        <v>0.03020065935703542</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3335763457614078</v>
+        <v>0.4651335732093855</v>
       </c>
       <c r="G25">
-        <v>0.2164905237814665</v>
+        <v>0.3069666841586738</v>
       </c>
       <c r="H25">
-        <v>0.1841086726171426</v>
+        <v>0.4776264521702842</v>
       </c>
       <c r="I25">
-        <v>0.1408385214847261</v>
+        <v>0.4739872866007673</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.194873514892258</v>
+        <v>0.2883096689441089</v>
       </c>
       <c r="M25">
-        <v>0.5268472800435404</v>
+        <v>0.2487075908363323</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7953014630662096</v>
+        <v>1.497744517184714</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9711167655286204</v>
+        <v>2.714161194353039</v>
       </c>
       <c r="C2">
-        <v>0.4215847273774216</v>
+        <v>0.5847282244621681</v>
       </c>
       <c r="D2">
-        <v>0.02602527397905163</v>
+        <v>0.0724177831277899</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4650413404363576</v>
+        <v>0.3027934069907019</v>
       </c>
       <c r="G2">
-        <v>0.3089105744678378</v>
+        <v>0.1982177163458019</v>
       </c>
       <c r="H2">
-        <v>0.4839417890378002</v>
+        <v>0.1839492141311467</v>
       </c>
       <c r="I2">
-        <v>0.4865250624665105</v>
+        <v>0.1562956262107296</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2867844065969294</v>
+        <v>0.1767166686828858</v>
       </c>
       <c r="M2">
-        <v>0.2233287334207716</v>
+        <v>0.4425073714752514</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.514733860554671</v>
+        <v>0.7557304700511764</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8585379497432086</v>
+        <v>2.365382224633152</v>
       </c>
       <c r="C3">
-        <v>0.4071738916452148</v>
+        <v>0.5408250265342645</v>
       </c>
       <c r="D3">
-        <v>0.02317560934999108</v>
+        <v>0.06379824486096197</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4657801849399306</v>
+        <v>0.2837706323632005</v>
       </c>
       <c r="G3">
-        <v>0.3108882590470827</v>
+        <v>0.1875246625247655</v>
       </c>
       <c r="H3">
-        <v>0.4887947014537701</v>
+        <v>0.1848982084694129</v>
       </c>
       <c r="I3">
-        <v>0.4957867113249055</v>
+        <v>0.168356712711665</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2860959356829724</v>
+        <v>0.1650664627284328</v>
       </c>
       <c r="M3">
-        <v>0.2061702657539684</v>
+        <v>0.3855542111808035</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.528828900888456</v>
+        <v>0.7346917086405256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7892128462782466</v>
+        <v>2.15112995403166</v>
       </c>
       <c r="C4">
-        <v>0.3983424049376367</v>
+        <v>0.5139331388116091</v>
       </c>
       <c r="D4">
-        <v>0.02141627138114188</v>
+        <v>0.05849570009394967</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4666282428029263</v>
+        <v>0.2729168552538184</v>
       </c>
       <c r="G4">
-        <v>0.3124268792460754</v>
+        <v>0.1817158326202204</v>
       </c>
       <c r="H4">
-        <v>0.4920569743757142</v>
+        <v>0.1859680863741602</v>
       </c>
       <c r="I4">
-        <v>0.5018498779597405</v>
+        <v>0.1764942370258602</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2858436360644419</v>
+        <v>0.1582094405204231</v>
       </c>
       <c r="M4">
-        <v>0.1956565308294671</v>
+        <v>0.3506521746704081</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.538753444722502</v>
+        <v>0.7243890037693177</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7609137547648288</v>
+        <v>2.06377471469051</v>
       </c>
       <c r="C5">
-        <v>0.3947481216227402</v>
+        <v>0.5029888565218528</v>
       </c>
       <c r="D5">
-        <v>0.0206969508088406</v>
+        <v>0.05633193959475591</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4670729077802136</v>
+        <v>0.2686902490085075</v>
       </c>
       <c r="G5">
-        <v>0.3131352400340361</v>
+        <v>0.1795280899444762</v>
       </c>
       <c r="H5">
-        <v>0.4934574235412725</v>
+        <v>0.1865217378702297</v>
       </c>
       <c r="I5">
-        <v>0.504415215520039</v>
+        <v>0.1799872384837595</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2857837164307142</v>
+        <v>0.1554859126913115</v>
       </c>
       <c r="M5">
-        <v>0.1913778382494584</v>
+        <v>0.3364418329510244</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.543116737242968</v>
+        <v>0.720814945271286</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7562118407688558</v>
+        <v>2.049266114076488</v>
       </c>
       <c r="C6">
-        <v>0.3941515840874672</v>
+        <v>0.5011723822444196</v>
       </c>
       <c r="D6">
-        <v>0.02057736602474591</v>
+        <v>0.05597246097727293</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4671527249163461</v>
+        <v>0.2679999625395197</v>
       </c>
       <c r="G6">
-        <v>0.3132577711641389</v>
+        <v>0.1791753429258804</v>
       </c>
       <c r="H6">
-        <v>0.4936942578864247</v>
+        <v>0.1866206405341728</v>
       </c>
       <c r="I6">
-        <v>0.5048468947947455</v>
+        <v>0.180577728741266</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2857763587196303</v>
+        <v>0.1550378410608602</v>
       </c>
       <c r="M6">
-        <v>0.1906677201297455</v>
+        <v>0.3340828482531464</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.543860510552392</v>
+        <v>0.7202582418783976</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7888313886690526</v>
+        <v>2.149952061724605</v>
       </c>
       <c r="C7">
-        <v>0.3982939119562445</v>
+        <v>0.5137854845935692</v>
       </c>
       <c r="D7">
-        <v>0.02140657993112427</v>
+        <v>0.0584665312226349</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.46663383869695</v>
+        <v>0.2728590732498333</v>
       </c>
       <c r="G7">
-        <v>0.31243610327531</v>
+        <v>0.1816856156107463</v>
       </c>
       <c r="H7">
-        <v>0.4920755736677975</v>
+        <v>0.1859750829236049</v>
       </c>
       <c r="I7">
-        <v>0.5018840923379475</v>
+        <v>0.1765406378793539</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2858426542354877</v>
+        <v>0.1581724283575596</v>
       </c>
       <c r="M7">
-        <v>0.1955988032462344</v>
+        <v>0.3504604840033849</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.538810998719029</v>
+        <v>0.724338317557212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9323425572241604</v>
+        <v>2.593910258640562</v>
       </c>
       <c r="C8">
-        <v>0.4166126067994185</v>
+        <v>0.5695757155961019</v>
       </c>
       <c r="D8">
-        <v>0.02504473559076104</v>
+        <v>0.06944762210536481</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.465214173155502</v>
+        <v>0.2960558533879265</v>
       </c>
       <c r="G8">
-        <v>0.3095250537716794</v>
+        <v>0.194366985925825</v>
       </c>
       <c r="H8">
-        <v>0.4855564228452565</v>
+        <v>0.18417233139985</v>
       </c>
       <c r="I8">
-        <v>0.4896402701096694</v>
+        <v>0.1602979669213838</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2865116731663946</v>
+        <v>0.1726358898342113</v>
       </c>
       <c r="M8">
-        <v>0.217408177686508</v>
+        <v>0.4228531572331136</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.519329958779238</v>
+        <v>0.7479130693613882</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.212093938135752</v>
+        <v>3.464745987291337</v>
       </c>
       <c r="C9">
-        <v>0.4526538308719523</v>
+        <v>0.6795958844847405</v>
       </c>
       <c r="D9">
-        <v>0.03210101992269898</v>
+        <v>0.09092098529021087</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4655649192871394</v>
+        <v>0.3486405266572419</v>
       </c>
       <c r="G9">
-        <v>0.3063986875728233</v>
+        <v>0.2257552472966253</v>
       </c>
       <c r="H9">
-        <v>0.4750147928833002</v>
+        <v>0.1847318061006931</v>
       </c>
       <c r="I9">
-        <v>0.4686224144566857</v>
+        <v>0.1345907231213044</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2891745862570261</v>
+        <v>0.2035274025120444</v>
       </c>
       <c r="M9">
-        <v>0.260336970606545</v>
+        <v>0.5655702263844802</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.491225573793471</v>
+        <v>0.8164667379258503</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.416524092291638</v>
+        <v>4.106296175488524</v>
       </c>
       <c r="C10">
-        <v>0.4791878283783149</v>
+        <v>0.7609645965357288</v>
       </c>
       <c r="D10">
-        <v>0.03723583726576862</v>
+        <v>0.1066913172622748</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4677419344235076</v>
+        <v>0.3923915512052076</v>
       </c>
       <c r="G10">
-        <v>0.3056886828947967</v>
+        <v>0.2535463663680417</v>
       </c>
       <c r="H10">
-        <v>0.4686375143487993</v>
+        <v>0.1879742203960006</v>
       </c>
       <c r="I10">
-        <v>0.4550112516556748</v>
+        <v>0.1199389939671391</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2919536218731622</v>
+        <v>0.2280276583884273</v>
       </c>
       <c r="M10">
-        <v>0.2919631864818939</v>
+        <v>0.6712212317178299</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.476761965364162</v>
+        <v>0.8827461472696001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.50926894533859</v>
+        <v>4.398922558813581</v>
       </c>
       <c r="C11">
-        <v>0.4912671437463132</v>
+        <v>0.7981378208944534</v>
       </c>
       <c r="D11">
-        <v>0.03956071096725111</v>
+        <v>0.1138717272617242</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.469150902069984</v>
+        <v>0.4135923073433219</v>
       </c>
       <c r="G11">
-        <v>0.3057130146031142</v>
+        <v>0.2673942818874053</v>
       </c>
       <c r="H11">
-        <v>0.4660334442884562</v>
+        <v>0.1901430761010943</v>
       </c>
       <c r="I11">
-        <v>0.4492180602520204</v>
+        <v>0.1143080693867287</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2933963296196964</v>
+        <v>0.2396272108913848</v>
       </c>
       <c r="M11">
-        <v>0.3063673138310321</v>
+        <v>0.7195384831301084</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.471531240661051</v>
+        <v>0.9168964975438314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.544351068179367</v>
+        <v>4.509878752915597</v>
       </c>
       <c r="C12">
-        <v>0.4958421924705192</v>
+        <v>0.8122405538421731</v>
       </c>
       <c r="D12">
-        <v>0.04043946063588066</v>
+        <v>0.1165923130649702</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4697447643540542</v>
+        <v>0.4218236504372754</v>
       </c>
       <c r="G12">
-        <v>0.3057723819986151</v>
+        <v>0.2728273063429185</v>
       </c>
       <c r="H12">
-        <v>0.4650900702417147</v>
+        <v>0.1910711849161402</v>
       </c>
       <c r="I12">
-        <v>0.447081773282985</v>
+        <v>0.1123347598940185</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2939682866448408</v>
+        <v>0.2440904514424034</v>
       </c>
       <c r="M12">
-        <v>0.3118239997381096</v>
+        <v>0.7378788330527044</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.469744942359512</v>
+        <v>0.9304517651287085</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.536797245104083</v>
+        <v>4.485975361014766</v>
       </c>
       <c r="C13">
-        <v>0.494856841339157</v>
+        <v>0.8092020644162119</v>
       </c>
       <c r="D13">
-        <v>0.04025027944967974</v>
+        <v>0.1160063086039287</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4696141810256265</v>
+        <v>0.4200415791697623</v>
       </c>
       <c r="G13">
-        <v>0.3057573622594489</v>
+        <v>0.2716485343198798</v>
       </c>
       <c r="H13">
-        <v>0.4652913418733533</v>
+        <v>0.1908664327457643</v>
       </c>
       <c r="I13">
-        <v>0.4475393025572263</v>
+        <v>0.1127525052717271</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2938439659023828</v>
+        <v>0.2431259764163514</v>
       </c>
       <c r="M13">
-        <v>0.3106487139801999</v>
+        <v>0.7339268548027604</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.47012099691085</v>
+        <v>0.9275038753495437</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.512155953540628</v>
+        <v>4.408047891940953</v>
       </c>
       <c r="C14">
-        <v>0.4916435205225582</v>
+        <v>0.7992975194888743</v>
       </c>
       <c r="D14">
-        <v>0.03963303917851135</v>
+        <v>0.1140955174342224</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4691985499712885</v>
+        <v>0.4142653372649434</v>
       </c>
       <c r="G14">
-        <v>0.305716892449432</v>
+        <v>0.2678373759469608</v>
       </c>
       <c r="H14">
-        <v>0.4659549758105044</v>
+        <v>0.1902172496121892</v>
       </c>
       <c r="I14">
-        <v>0.4490411540103985</v>
+        <v>0.1141424762656325</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2934428713063824</v>
+        <v>0.2399929543144452</v>
       </c>
       <c r="M14">
-        <v>0.3068161972828776</v>
+        <v>0.7210464389183073</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.471380380630876</v>
+        <v>0.9179989193440861</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.497057393419766</v>
+        <v>4.36033494869838</v>
       </c>
       <c r="C15">
-        <v>0.4896753707392065</v>
+        <v>0.7932341933635314</v>
       </c>
       <c r="D15">
-        <v>0.03925474797657102</v>
+        <v>0.1129253191977</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4689518224404736</v>
+        <v>0.4107541734489004</v>
       </c>
       <c r="G15">
-        <v>0.3056986411790774</v>
+        <v>0.2655280453728395</v>
       </c>
       <c r="H15">
-        <v>0.46636703628851</v>
+        <v>0.1898337326055639</v>
       </c>
       <c r="I15">
-        <v>0.4499685700179992</v>
+        <v>0.1150148961066222</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2932005266729192</v>
+        <v>0.2380832672946838</v>
       </c>
       <c r="M15">
-        <v>0.3044689414336545</v>
+        <v>0.7131627087926873</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.472177129218522</v>
+        <v>0.9122595098788508</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.410457751359843</v>
+        <v>4.087190808841342</v>
       </c>
       <c r="C16">
-        <v>0.4783985607893158</v>
+        <v>0.7585386971583148</v>
       </c>
       <c r="D16">
-        <v>0.03708367602193618</v>
+        <v>0.1062222397213901</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4676582891684333</v>
+        <v>0.3910335331575538</v>
       </c>
       <c r="G16">
-        <v>0.3056940996415136</v>
+        <v>0.2526669561307386</v>
       </c>
       <c r="H16">
-        <v>0.4688136746756726</v>
+        <v>0.1878470338402352</v>
       </c>
       <c r="I16">
-        <v>0.4553978840471622</v>
+        <v>0.1203286636065606</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2918629266596326</v>
+        <v>0.227279196662721</v>
       </c>
       <c r="M16">
-        <v>0.2910221618087263</v>
+        <v>0.6680693113754401</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.477130990706556</v>
+        <v>0.8805988674323544</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.357265716447785</v>
+        <v>3.919848344197533</v>
       </c>
       <c r="C17">
-        <v>0.4714825878475608</v>
+        <v>0.7372969051998552</v>
       </c>
       <c r="D17">
-        <v>0.03574894532148676</v>
+        <v>0.1021121711098232</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4669720549132137</v>
+        <v>0.379279402648045</v>
       </c>
       <c r="G17">
-        <v>0.3057804196138036</v>
+        <v>0.245096772473417</v>
       </c>
       <c r="H17">
-        <v>0.4703906909054467</v>
+        <v>0.1868108369970898</v>
       </c>
       <c r="I17">
-        <v>0.4588307900272728</v>
+        <v>0.1238604927596043</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2910880486234788</v>
+        <v>0.2207713446789938</v>
       </c>
       <c r="M17">
-        <v>0.2827771771876897</v>
+        <v>0.640476266362171</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.480515854073943</v>
+        <v>0.8622337534172289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.32664752672548</v>
+        <v>3.823668897407117</v>
       </c>
       <c r="C18">
-        <v>0.4675055614675045</v>
+        <v>0.7250938642010283</v>
       </c>
       <c r="D18">
-        <v>0.03498021300656262</v>
+        <v>0.09974873296799558</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4666167478914005</v>
+        <v>0.3726398887187941</v>
       </c>
       <c r="G18">
-        <v>0.3058627472375832</v>
+        <v>0.2408550781367893</v>
       </c>
       <c r="H18">
-        <v>0.4713257012092598</v>
+        <v>0.1862797067424395</v>
       </c>
       <c r="I18">
-        <v>0.4608428153740345</v>
+        <v>0.1259886012845328</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2906591636210578</v>
+        <v>0.2170706133015017</v>
       </c>
       <c r="M18">
-        <v>0.2780365182665676</v>
+        <v>0.6246291421128944</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.482589667839349</v>
+        <v>0.852044018798594</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.316276757814535</v>
+        <v>3.79111552233735</v>
       </c>
       <c r="C19">
-        <v>0.4661591683619406</v>
+        <v>0.7209645490055721</v>
       </c>
       <c r="D19">
-        <v>0.0347197580037033</v>
+        <v>0.09894859285087421</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4665032098403614</v>
+        <v>0.3704121882864229</v>
       </c>
       <c r="G19">
-        <v>0.3058962281187689</v>
+        <v>0.2394377672488517</v>
       </c>
       <c r="H19">
-        <v>0.4716470797095624</v>
+        <v>0.1861108084269603</v>
       </c>
       <c r="I19">
-        <v>0.4615304901019108</v>
+        <v>0.1267254465575203</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2905168377426293</v>
+        <v>0.2158247341928359</v>
       </c>
       <c r="M19">
-        <v>0.2764317036929285</v>
+        <v>0.6192674425706528</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.483313610504325</v>
+        <v>0.8486566633280717</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.362930551329327</v>
+        <v>3.937654606537023</v>
       </c>
       <c r="C20">
-        <v>0.4722187190520799</v>
+        <v>0.7395565883522579</v>
       </c>
       <c r="D20">
-        <v>0.03589113670463462</v>
+        <v>0.1025496322935311</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4670410274413825</v>
+        <v>0.3805179957415916</v>
       </c>
       <c r="G20">
-        <v>0.3057678470602667</v>
+        <v>0.245890879779715</v>
       </c>
       <c r="H20">
-        <v>0.4702199217003198</v>
+        <v>0.1869143793642181</v>
       </c>
       <c r="I20">
-        <v>0.4584614682239145</v>
+        <v>0.1234744436302275</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2911687967770575</v>
+        <v>0.2214596888989178</v>
       </c>
       <c r="M20">
-        <v>0.283654702643382</v>
+        <v>0.6434110959155603</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.480142389171732</v>
+        <v>0.8641497674440899</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.519394756045301</v>
+        <v>4.430932873720451</v>
       </c>
       <c r="C21">
-        <v>0.4925873301916113</v>
+        <v>0.8022059900798411</v>
       </c>
       <c r="D21">
-        <v>0.03981438223617317</v>
+        <v>0.1146567168625268</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4693189929774348</v>
+        <v>0.4159563121838588</v>
       </c>
       <c r="G21">
-        <v>0.3057274166005755</v>
+        <v>0.2689515422426894</v>
       </c>
       <c r="H21">
-        <v>0.4657588905419416</v>
+        <v>0.1904049733006161</v>
       </c>
       <c r="I21">
-        <v>0.4485984629409732</v>
+        <v>0.1137298077683955</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2935599870659189</v>
+        <v>0.2409112340054946</v>
       </c>
       <c r="M21">
-        <v>0.3079418443676403</v>
+        <v>0.7248284875560813</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.471005187447872</v>
+        <v>0.9207734406583654</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.621428680451231</v>
+        <v>4.754180431343286</v>
       </c>
       <c r="C22">
-        <v>0.5059043065663218</v>
+        <v>0.8433045067342277</v>
       </c>
       <c r="D22">
-        <v>0.04236892836860306</v>
+        <v>0.1225785685209928</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4711594007894107</v>
+        <v>0.4403093668497817</v>
       </c>
       <c r="G22">
-        <v>0.3059934217837679</v>
+        <v>0.285133413294048</v>
       </c>
       <c r="H22">
-        <v>0.4630924275202233</v>
+        <v>0.1933124508729662</v>
       </c>
       <c r="I22">
-        <v>0.4424874612360288</v>
+        <v>0.1082931376444325</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2952721717146432</v>
+        <v>0.2540390523491567</v>
       </c>
       <c r="M22">
-        <v>0.3238273127555757</v>
+        <v>0.7782974530335167</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.466167209536593</v>
+        <v>0.9614378256774501</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.566992511701244</v>
+        <v>4.581566883246637</v>
       </c>
       <c r="C23">
-        <v>0.4987964678449828</v>
+        <v>0.8213542468637058</v>
       </c>
       <c r="D23">
-        <v>0.04100640692719537</v>
+        <v>0.1183494783977892</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4701449283597725</v>
+        <v>0.4271969132979763</v>
       </c>
       <c r="G23">
-        <v>0.3058246237949902</v>
+        <v>0.2763897659323789</v>
       </c>
       <c r="H23">
-        <v>0.464492770294072</v>
+        <v>0.1917009349990337</v>
       </c>
       <c r="I23">
-        <v>0.445718311606603</v>
+        <v>0.111105944647516</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2943446876494846</v>
+        <v>0.2469926226338117</v>
       </c>
       <c r="M23">
-        <v>0.3153479078801169</v>
+        <v>0.7497340638650982</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.468645430427244</v>
+        <v>0.9393830754058854</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.360369595749773</v>
+        <v>3.92960431065319</v>
       </c>
       <c r="C24">
-        <v>0.4718859170368717</v>
+        <v>0.7385349573499695</v>
       </c>
       <c r="D24">
-        <v>0.03582685626818716</v>
+        <v>0.1023518577100049</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4670097228093368</v>
+        <v>0.3799576612006916</v>
       </c>
       <c r="G24">
-        <v>0.3057734292668428</v>
+        <v>0.2455315208473721</v>
       </c>
       <c r="H24">
-        <v>0.4702970381120721</v>
+        <v>0.1868673671934005</v>
       </c>
       <c r="I24">
-        <v>0.4586283190033349</v>
+        <v>0.1236486731692086</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2911322388194577</v>
+        <v>0.221148362050883</v>
       </c>
       <c r="M24">
-        <v>0.2832579749416624</v>
+        <v>0.6420842086382237</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.480310834571483</v>
+        <v>0.8632823929563216</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136601576579039</v>
+        <v>3.228978213635457</v>
       </c>
       <c r="C25">
-        <v>0.4428928923975093</v>
+        <v>0.6497507438421337</v>
       </c>
       <c r="D25">
-        <v>0.03020065935703542</v>
+        <v>0.08511530138748924</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4651335732093855</v>
+        <v>0.3335763457613936</v>
       </c>
       <c r="G25">
-        <v>0.3069666841586738</v>
+        <v>0.2164905237815731</v>
       </c>
       <c r="H25">
-        <v>0.4776264521702842</v>
+        <v>0.1841086726171426</v>
       </c>
       <c r="I25">
-        <v>0.4739872866007673</v>
+        <v>0.1408385214847314</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2883096689441089</v>
+        <v>0.1948735148922154</v>
       </c>
       <c r="M25">
-        <v>0.2487075908363323</v>
+        <v>0.5268472800435333</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.497744517184714</v>
+        <v>0.7953014630662665</v>
       </c>
     </row>
   </sheetData>
